--- a/data/input/preprocessing/mechanical/0_deg/Performance_0_PP.xlsx
+++ b/data/input/preprocessing/mechanical/0_deg/Performance_0_PP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/performance_format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/preprocessing/mechanical/0_deg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA798671-12BF-294E-9437-2A5F7696D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86829AC7-E7FB-8248-ACCC-9DF4D54E409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="940" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="17240" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="performance_params_0" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Alternative_Param</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Inversion</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>Threshold</t>
   </si>
 </sst>
 </file>
@@ -540,15 +546,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BA562C-4763-334B-A47C-FAC1918D3428}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -561,44 +567,50 @@
       <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="C2" s="7">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C3" s="7">
-        <v>2000</v>
+        <v>1929</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
